--- a/YouTube_Shorts_Automation/youtube_shorts_crawling/top_yt_shorts_crawling/DB/loaded_db_100_2024-11-19.xlsx
+++ b/YouTube_Shorts_Automation/youtube_shorts_crawling/top_yt_shorts_crawling/DB/loaded_db_100_2024-11-19.xlsx
@@ -539,7 +539,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[[('The audacity of assuming I can draw those perfect boxes.', '3 weeks ago (edited)'), ("When I practice I can do it, but when I'm drawing I seem to forget everything.", '3 weeks ago'), ('That’s the quickest little gem of anatomy tips I’ve ever seen…!', '3 weeks ago'), ('For the torso, I use a slightly stretched circle.\n\nIt works well enough for me.', '3 weeks ago'), ("another tip would to shape the box before drawing as boxes aren't exactly the same shape as a human body and some areas (mainly shoulders and chest) would be drawn slightly incorrectly so if you draw a sphere within the box or shave the box that would help even more to draw humans more proportional. :D", '3 weeks ago'), ("Damn, lucy, you've been BUILDING.", '3 weeks ago'), ('Thanks Marc, I am going to start hammering this into my process, I did a thumbnail and that was a hell of a realization. You rock man, changing lives of artists everyday!', '3 weeks ago'), ('Yep 100% box method helped me I was struggling with basic human design for years and just in 5 minutes I can finally draw human characters now I just need to learn shading', '3 weeks ago'), ('And yet I still see no comment saying about the drawings presented on the video.', '2 weeks ago'), ('Proportion is like, you know how 16:9 is your screen, no matter if the pixel is 1080p or 4k? Same thing with characters, it stays ALWAYS the same relationships between every single parts of the body. Need to check head to shoulders, hips and arms to ribcage, recheck head to ribcage, recheck hips and legs and arms etc etc.. back and forth\nBasically, the concept itself of proportion exists because of comparison, the mistake is drawing parts of something without thinking about the link to other parts', '3 weeks ago (edited)'), ('Honestly helped me realize this is my biggest issue while drawing ', '3 weeks ago'), ("Woah its like I found a cheat code I've been trying to find for a long time. Thanks!", '3 weeks ago'), ('GOD YOU LITERALLY SOLVED EVERY (AND GOD SHOULD CURSE ME IF I LIE) EVERY SINGLE PROBLEM I STRUGGLED WITH IN FEW SECONDS', '3 weeks ago'), ('I really like these shorts!', '2 days ago'), ("I've watched so many video tips, tutorials, videos of books, lets draws.. artists etc.. and even read in andrew loomis books.. but that didn't help. THIS DID!! Finally I found a method that will work for Me to start with. To even get the simple shape guide on paper to start practicing. Couldn't get a stickman the right proportion even xD But this was very good video, thanks a lot! very appreciated, sensei ^^", '2 weeks ago'), ('As a person who draw boxes for a month, boxes are artist best friend, i swear drawing boxes iin any perspective helps you to understand anything complicated as you learn, and i recomed learning anatomy day 1, like bones and muscles, and not only drawing , first learn how bones are connected and how the muscles work and bend', '3 weeks ago'), ("I'm always screwing up the connections between head and shoulders, basically the whole neck, and the connection between torso and hips.", '3 weeks ago'), ('Ooh YIKES. I can feel that in the same way', '3 weeks ago'), ("This is a good method but for me personally I prefer to draw a bean shape for the torso (i learned it from Proko). I find it easier to twist and bend the torso from different angles with it and when I use the box method, my figures turn out more stiff than I'd like. It's definitely more a me problem than the method though.", '3 weeks ago (edited)'), ('the box method is particularly good when it comes to working with perspective. also, dont expect this trick to be the end all be all when it comes to improving your art! you still need to learn the other attributes like anatomy', '13 days ago'), ('I know its hard to fit everything in these quick shorts but is there tips on how much space head/torso/hips take up in that upper half?', '3 weeks ago'), ('SIR, THATS A POGGERS, I NEED THIS LESSON', '3 weeks ago'), ('This is a great rule of thumb, but there’s still a few things that I can’t seem to get right. How far away from each other should the boxes be? How big/tall should the boxes be? Messing up these sizes can result in some wonky bodies.', '3 weeks ago'), ('this is really coming at the right time! thank you', '2 weeks ago'), ('comically smol head at the beginning ', '3 weeks ago'), ('Bro, you make it look so easy..', '3 weeks ago'), ('The boxes definitely help with proportions.', '13 days ago'), ('Quite useful, but that spacing you slipped between the boxes and talked right past is a major problem for me. I keep making my torsos too long or too short and it results in completely botched drafts.\n\nHow would you recommend rectifying this?', '3 weeks ago'), ('I think you should make a tutorial on drawing a woman’s chest. For some reason it always comes out inconsistent in size/height.', '2 weeks ago'), ('It helps with training. Once you get the hang of proportions, you can get rid of your training gear and start doing it from memory or using your imagination. It also means you can easily adjust your proportions while still making it realistic.', '3 weeks ago'), ('takes notes "learn to draw boxes and circles first" got it!', '7 days ago'), ('The length from shoulder to shoulder is about 3 heads in diameter. But that’s only for a more realistic proportion.', '6 days ago'), ('The height thing works, till you want to draw a character that’s bending over or rolling or something', '3 weeks ago'), ('This actually breaks my brain more...', '3 weeks ago'), ('Thank you sir its always so hard this is good info hope can use it', '2 weeks ago'), ('Idk first seemed very anatomically correct ngl', '3 weeks ago'), ("I'd love to see how the box method works with foreshortening", '13 hours ago'), ('Bro i love you ima watch all your videos and gets your course immediately, rn i’m following the 30 days challenges ( day 7 ) ', '3 weeks ago'), ("Really good advice, yet it's like everything I learned is thrown out the window as soon as I start drawing ", '3 weeks ago'), ('To imagine how much space should be in between, try considering that the boxes only represent the bone structures (spine doesn’t count) and leave the space in between according to what “feels right”.\nRemember that if you ever try to check your own body to get more accurate proportions, you should not look at it, but feel the gap with your hand from the side, not from the front.\nWhat i mean by “side” is you should feel the distance between your last rib and the top of your pelvis by putting your hand on your waist and somewhat squeezing your hand between that gap. Repeat, but for the head and torso. That method should give you a pretty good idea of the distance, although I can’t say for sure since I never used this technique; I don’t draw.', '3 weeks ago'), ('The tiny head with a huge body was funny', '3 weeks ago'), ('My issue is mainly neck sometimes it looks too long and sometimes too short I would like to properly know a good distance for it', '3 weeks ago'), ('"the box method" but I instantly get math flashbacks', '13 days ago'), ('Ive never been able to get used to boxes to make the figure.', '3 weeks ago'), ('Welp time to try this tomorrow', '2 weeks ago'), ('Me: drawing characters are hard but I love it\nMr Marc: how to draw a character proportionately.\n\nMe: gets inspired this is Perry easy and so fun to do now!', '13 days ago'), ("Its a great job/hobby to pursue, but I really don't get how people get the motivation/discipline to go through all these rules and stuff? I'd just get really frustrated and dip when seeing what he does already.", '3 weeks ago'), ('When i did this, my teachers said that my character had too long legs...', '3 weeks ago'), ('Thanks !!.', '2 weeks ago'), ('Thanks Professor Xavier', '3 weeks ago'), ('My struggle is I always make the head either too big or too small and it always throws off the 7-8 head tall thing', '3 weeks ago'), ('I tried this and it works pretty well but I’m bad at eyeballing this the relative size of things so I’m still pretty bad at drawing using this ', '3 weeks ago'), ('There shouldve been a vine boom sound effect when momo showed up', '3 weeks ago'), ('You literally drew my palworld character ', '3 weeks ago'), ('"draw boxes"\nCan i just throw boxes or a posing doll into blender and use that instead or is someone going to crucify me for this', '3 weeks ago'), ('I need a tutorial like this for wolves or cats', '7 days ago (edited)'), ("Also, don't forget that generally (not always), women have their waists higher and wider, while men have their shoulders wider and their waists lower", '3 weeks ago'), ("Ya know I have a weird issue when using boxes. I tend to draw the boxes with the wrong proportions.\n\nBut when I draw an actual figure on it, I use the figure to fix the boxes which in turn use the boxes fix the figures.\n\nIt's odd and time consuming. Halp.", '2 weeks ago'), ('Bless you', '2 weeks ago'), ('Do you recommend a beginner uses this method or do they have to go through the classic route of learning anatomy first before using shortcut methods ?', '3 weeks ago'), ('In my head i totally can do it…', '3 weeks ago'), ('This is akin to Spongebob\'s "how to draw a face" tutorial for me... HOW DID YOU DREW PERFECT BOXES!!?? xd', '3 weeks ago'), ('i forgot how to draw humans the normal way.\n\nthanks for helping me rember', '2 weeks ago'), ('That handwritten "pelvis" looked awfully similar to a different body part...', '3 weeks ago'), ('Funny that you assume the pencil goes the direction my hand wants it to(I have zero line control)', '2 weeks ago'), ('Brain: "Oh I get it, easy."\nHands: "Haha!... Funny."', '3 weeks ago'), ('Bad art style, good proportion ️\n\nGood art style, bad proportion ️', '11 days ago'), ("Whats Dan da Dan? It's been a long time since I've watched anime  and now Dan da Dan is everywhere", '2 weeks ago'), ('Gotta see if you have the ability to draw different body types or even chubby ladies', '6 days ago'), ('Nice!', '3 weeks ago'), ("Aren't the elbows suppose to reach the middle of the stomach?", '3 weeks ago'), ('Except if it is a transformer, then the legs will be like ⅔ of it', '3 weeks ago'), ('How do we consider proportion when drawing in perspective like the ( oh yikes one)', '3 weeks ago'), ('My arms are apparently long as hell', '10 days ago'), ('I think you fell in love with kowase ', '3 weeks ago'), ('How do i not forget how to do this when i am drawing and not practicing... Like do i just pretend I am practicing and not drawing???', '3 weeks ago'), ('Bro EVERY SINGLE SHORT/TIKTOK, he has some pics', '3 weeks ago'), ('Pretty sure the torso should be smaller, the legs longer, the bust bigger, and that thick thighs save lives but good video', '3 weeks ago'), ('All you had to do was follow the damn traina', '3 weeks ago'), ("I would kill to be able to draw a box in perspective, I can't draw in perspective even if I use horizon lines, and lines and more lines and perspective points and points and more points", '3 weeks ago (edited)'), ('thanks', '3 weeks ago'), ('how about the gap between boxes?', '3 days ago'), ('10/10', '2 weeks ago'), ('Ok dumb question but how do i know how big the boxes should be?', '2 weeks ago'), ('How am I suppose to use it in perspective?', '3 weeks ago'), ('Can you explain about guy proportions?… ', '2 weeks ago'), ("Boxes... it's always boxes", '3 weeks ago'), ('Lets hope I dont fail this online art school and end up gaining political power to disrupt world peace for gaining even more power', '3 weeks ago'), ('DANDADAN MENTIONED!?', '2 weeks ago'), ('Why did I read Pelvis as…', '3 weeks ago'), ('Was that sneesnaw?', '3 weeks ago'), ('easy to remember eh? I already forgot xd', '3 weeks ago'), ('When you realize if you wanna draw human you gotta learn about human body anatomy first...', '2 weeks ago'), ('Tusen takk dette kommer å være en stor hjelp', '3 weeks ago'), ('dandadan lady whose name i can NOT remember!!!', '3 weeks ago'), ('Send this to oda', '3 weeks ago'), ("Warning don't depend on this method u mught not improve using this", '3 weeks ago'), ('Now do dwarves.', '2 weeks ago'), ('MOM I SWEAR IM WATCHING THIS TO LEARN PROPORTIONS', '3 weeks ago'), ('If someone could help out and let me know what’s r he pelvis to torso to waist ratio?', '3 weeks ago (edited)'), ('WHY WOULD YOU DO LUCY LIKE TGAT', '3 weeks ago'), ('use 3D', '3 weeks ago'), ('BUT WHY STOP THEEEEEERE~', '3 weeks ago'), ('DANDADAN!!!!!!!!!!!!', '3 weeks ago'), ('LUCY NOOOOOOO', '3 weeks ago'), ('What is a man?\n\nA miserable little pile of boxes!', '3 weeks ago'), ('Shesh', '3 weeks ago'), ('Hi', '3 weeks ago'), ('First :D', '3 weeks ago'), ('Smash', '3 weeks ago'), ('hear me out', '2 weeks ago'), ('I recommend not using the  box method there is no things in a body that Represents a box.\nSaid by the one and only samdoesarts', '2 weeks ago')]]</t>
+          <t>[[('The audacity of assuming I can draw those perfect boxes.', '3 weeks ago (edited)'), ("When I practice I can do it, but when I'm drawing I seem to forget everything.", '3 weeks ago'), ('That’s the quickest little gem of anatomy tips I’ve ever seen…!', '3 weeks ago'), ('For the torso, I use a slightly stretched circle.\n\nIt works well enough for me.', '3 weeks ago'), ("another tip would to shape the box before drawing as boxes aren't exactly the same shape as a human body and some areas (mainly shoulders and chest) would be drawn slightly incorrectly so if you draw a sphere within the box or shave the box that would help even more to draw humans more proportional. :D", '3 weeks ago'), ("Damn, lucy, you've been BUILDING.", '3 weeks ago'), ('Thanks Marc, I am going to start hammering this into my process, I did a thumbnail and that was a hell of a realization. You rock man, changing lives of artists everyday!', '3 weeks ago'), ('Yep 100% box method helped me I was struggling with basic human design for years and just in 5 minutes I can finally draw human characters now I just need to learn shading', '3 weeks ago'), ('And yet I still see no comment saying about the drawings presented on the video.', '2 weeks ago'), ('Proportion is like, you know how 16:9 is your screen, no matter if the pixel is 1080p or 4k? Same thing with characters, it stays ALWAYS the same relationships between every single parts of the body. Need to check head to shoulders, hips and arms to ribcage, recheck head to ribcage, recheck hips and legs and arms etc etc.. back and forth\nBasically, the concept itself of proportion exists because of comparison, the mistake is drawing parts of something without thinking about the link to other parts', '3 weeks ago (edited)'), ('Honestly helped me realize this is my biggest issue while drawing ', '3 weeks ago'), ('GOD YOU LITERALLY SOLVED EVERY (AND GOD SHOULD CURSE ME IF I LIE) EVERY SINGLE PROBLEM I STRUGGLED WITH IN FEW SECONDS', '3 weeks ago'), ("Woah its like I found a cheat code I've been trying to find for a long time. Thanks!", '3 weeks ago'), ('I really like these shorts!', '2 days ago'), ("I've watched so many video tips, tutorials, videos of books, lets draws.. artists etc.. and even read in andrew loomis books.. but that didn't help. THIS DID!! Finally I found a method that will work for Me to start with. To even get the simple shape guide on paper to start practicing. Couldn't get a stickman the right proportion even xD But this was very good video, thanks a lot! very appreciated, sensei ^^", '2 weeks ago'), ('As a person who draw boxes for a month, boxes are artist best friend, i swear drawing boxes iin any perspective helps you to understand anything complicated as you learn, and i recomed learning anatomy day 1, like bones and muscles, and not only drawing , first learn how bones are connected and how the muscles work and bend', '3 weeks ago'), ("I'm always screwing up the connections between head and shoulders, basically the whole neck, and the connection between torso and hips.", '3 weeks ago'), ('Ooh YIKES. I can feel that in the same way', '3 weeks ago'), ("This is a good method but for me personally I prefer to draw a bean shape for the torso (i learned it from Proko). I find it easier to twist and bend the torso from different angles with it and when I use the box method, my figures turn out more stiff than I'd like. It's definitely more a me problem than the method though.", '3 weeks ago (edited)'), ('the box method is particularly good when it comes to working with perspective. also, dont expect this trick to be the end all be all when it comes to improving your art! you still need to learn the other attributes like anatomy', '13 days ago'), ('I know its hard to fit everything in these quick shorts but is there tips on how much space head/torso/hips take up in that upper half?', '3 weeks ago'), ('SIR, THATS A POGGERS, I NEED THIS LESSON', '3 weeks ago'), ('This is a great rule of thumb, but there’s still a few things that I can’t seem to get right. How far away from each other should the boxes be? How big/tall should the boxes be? Messing up these sizes can result in some wonky bodies.', '3 weeks ago'), ('this is really coming at the right time! thank you', '2 weeks ago'), ('comically smol head at the beginning ', '3 weeks ago'), ('Bro, you make it look so easy..', '3 weeks ago'), ('The boxes definitely help with proportions.', '13 days ago'), ('Quite useful, but that spacing you slipped between the boxes and talked right past is a major problem for me. I keep making my torsos too long or too short and it results in completely botched drafts.\n\nHow would you recommend rectifying this?', '3 weeks ago'), ('I think you should make a tutorial on drawing a woman’s chest. For some reason it always comes out inconsistent in size/height.', '2 weeks ago'), ('It helps with training. Once you get the hang of proportions, you can get rid of your training gear and start doing it from memory or using your imagination. It also means you can easily adjust your proportions while still making it realistic.', '3 weeks ago'), ('takes notes "learn to draw boxes and circles first" got it!', '7 days ago'), ('The length from shoulder to shoulder is about 3 heads in diameter. But that’s only for a more realistic proportion.', '6 days ago'), ('This actually breaks my brain more...', '3 weeks ago'), ('The height thing works, till you want to draw a character that’s bending over or rolling or something', '3 weeks ago'), ('Thank you sir its always so hard this is good info hope can use it', '2 weeks ago'), ('Idk first seemed very anatomically correct ngl', '3 weeks ago'), ("I'd love to see how the box method works with foreshortening", '16 hours ago'), ('Bro i love you ima watch all your videos and gets your course immediately, rn i’m following the 30 days challenges ( day 7 ) ', '3 weeks ago'), ("Really good advice, yet it's like everything I learned is thrown out the window as soon as I start drawing ", '3 weeks ago'), ('To imagine how much space should be in between, try considering that the boxes only represent the bone structures (spine doesn’t count) and leave the space in between according to what “feels right”.\nRemember that if you ever try to check your own body to get more accurate proportions, you should not look at it, but feel the gap with your hand from the side, not from the front.\nWhat i mean by “side” is you should feel the distance between your last rib and the top of your pelvis by putting your hand on your waist and somewhat squeezing your hand between that gap. Repeat, but for the head and torso. That method should give you a pretty good idea of the distance, although I can’t say for sure since I never used this technique; I don’t draw.', '3 weeks ago'), ('The tiny head with a huge body was funny', '3 weeks ago'), ('My issue is mainly neck sometimes it looks too long and sometimes too short I would like to properly know a good distance for it', '3 weeks ago'), ('"the box method" but I instantly get math flashbacks', '13 days ago'), ('Ive never been able to get used to boxes to make the figure.', '3 weeks ago'), ('Welp time to try this tomorrow', '2 weeks ago'), ('Me: drawing characters are hard but I love it\nMr Marc: how to draw a character proportionately.\n\nMe: gets inspired this is Perry easy and so fun to do now!', '13 days ago'), ("Its a great job/hobby to pursue, but I really don't get how people get the motivation/discipline to go through all these rules and stuff? I'd just get really frustrated and dip when seeing what he does already.", '3 weeks ago'), ('When i did this, my teachers said that my character had too long legs...', '3 weeks ago'), ('Thanks !!.', '2 weeks ago'), ('Thanks Professor Xavier', '3 weeks ago'), ('My struggle is I always make the head either too big or too small and it always throws off the 7-8 head tall thing', '3 weeks ago'), ('I tried this and it works pretty well but I’m bad at eyeballing this the relative size of things so I’m still pretty bad at drawing using this ', '3 weeks ago'), ('There shouldve been a vine boom sound effect when momo showed up', '3 weeks ago'), ('You literally drew my palworld character ', '3 weeks ago'), ('"draw boxes"\nCan i just throw boxes or a posing doll into blender and use that instead or is someone going to crucify me for this', '3 weeks ago'), ('I need a tutorial like this for wolves or cats', '7 days ago (edited)'), ("Also, don't forget that generally (not always), women have their waists higher and wider, while men have their shoulders wider and their waists lower", '3 weeks ago'), ("Ya know I have a weird issue when using boxes. I tend to draw the boxes with the wrong proportions.\n\nBut when I draw an actual figure on it, I use the figure to fix the boxes which in turn use the boxes fix the figures.\n\nIt's odd and time consuming. Halp.", '3 weeks ago'), ('Bless you', '2 weeks ago'), ('Do you recommend a beginner uses this method or do they have to go through the classic route of learning anatomy first before using shortcut methods ?', '3 weeks ago'), ('In my head i totally can do it…', '3 weeks ago'), ('This is akin to Spongebob\'s "how to draw a face" tutorial for me... HOW DID YOU DREW PERFECT BOXES!!?? xd', '3 weeks ago'), ('i forgot how to draw humans the normal way.\n\nthanks for helping me rember', '2 weeks ago'), ('That handwritten "pelvis" looked awfully similar to a different body part...', '3 weeks ago'), ('Funny that you assume the pencil goes the direction my hand wants it to(I have zero line control)', '2 weeks ago'), ('Brain: "Oh I get it, easy."\nHands: "Haha!... Funny."', '3 weeks ago'), ('Bad art style, good proportion ️\n\nGood art style, bad proportion ️', '11 days ago'), ("Whats Dan da Dan? It's been a long time since I've watched anime  and now Dan da Dan is everywhere", '2 weeks ago'), ('Gotta see if you have the ability to draw different body types or even chubby ladies', '6 days ago'), ('Nice!', '3 weeks ago'), ("Aren't the elbows suppose to reach the middle of the stomach?", '3 weeks ago'), ('Except if it is a transformer, then the legs will be like ⅔ of it', '3 weeks ago'), ('How do we consider proportion when drawing in perspective like the ( oh yikes one)', '3 weeks ago'), ('My arms are apparently long as hell', '10 days ago'), ('I think you fell in love with kowase ', '3 weeks ago'), ('How do i not forget how to do this when i am drawing and not practicing... Like do i just pretend I am practicing and not drawing???', '3 weeks ago'), ('Bro EVERY SINGLE SHORT/TIKTOK, he has some pics', '3 weeks ago'), ('Pretty sure the torso should be smaller, the legs longer, the bust bigger, and that thick thighs save lives but good video', '3 weeks ago'), ('All you had to do was follow the damn traina', '3 weeks ago'), ("I would kill to be able to draw a box in perspective, I can't draw in perspective even if I use horizon lines, and lines and more lines and perspective points and points and more points", '3 weeks ago (edited)'), ('thanks', '3 weeks ago'), ('how about the gap between boxes?', '3 days ago'), ('10/10', '2 weeks ago'), ('Ok dumb question but how do i know how big the boxes should be?', '2 weeks ago'), ('How am I suppose to use it in perspective?', '3 weeks ago'), ('Can you explain about guy proportions?… ', '2 weeks ago'), ("Boxes... it's always boxes", '3 weeks ago'), ('Lets hope I dont fail this online art school and end up gaining political power to disrupt world peace for gaining even more power', '3 weeks ago'), ('DANDADAN MENTIONED!?', '2 weeks ago'), ('Why did I read Pelvis as…', '3 weeks ago'), ('Was that sneesnaw?', '3 weeks ago'), ('easy to remember eh? I already forgot xd', '3 weeks ago'), ('When you realize if you wanna draw human you gotta learn about human body anatomy first...', '2 weeks ago'), ('Tusen takk dette kommer å være en stor hjelp', '3 weeks ago'), ('dandadan lady whose name i can NOT remember!!!', '3 weeks ago'), ("Warning don't depend on this method u mught not improve using this", '3 weeks ago'), ('Send this to oda', '3 weeks ago'), ('Now do dwarves.', '2 weeks ago'), ('MOM I SWEAR IM WATCHING THIS TO LEARN PROPORTIONS', '3 weeks ago'), ('If someone could help out and let me know what’s r he pelvis to torso to waist ratio?', '3 weeks ago (edited)'), ('WHY WOULD YOU DO LUCY LIKE TGAT', '3 weeks ago'), ('use 3D', '3 weeks ago'), ('BUT WHY STOP THEEEEEERE~', '3 weeks ago'), ('DANDADAN!!!!!!!!!!!!', '3 weeks ago'), ('LUCY NOOOOOOO', '3 weeks ago'), ('What is a man?\n\nA miserable little pile of boxes!', '3 weeks ago'), ('Shesh', '3 weeks ago'), ('Hi', '3 weeks ago'), ('First :D', '3 weeks ago'), ('Smash', '3 weeks ago'), ('hear me out', '2 weeks ago'), ('I recommend not using the  box method there is no things in a body that Represents a box.\nSaid by the one and only samdoesarts', '2 weeks ago')]]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -727,18 +727,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[[("I'm pretty sure the Catholic Church has a no-mustache saint policy.", '3 months ago'), ('Regarding saint patrons of criminals, I heard once Saint Nicholas was seen as patron of thieves. There was something also about the Good Thief, you know that guy who was crucified next to Jesus...', '3 months ago'), ('No major christian figure has ever been regarded as a criminal in the eyes of the law... totally never...', '3 months ago'), ("yeah that's Freddie Mercury", '3 months ago'), ('I remember seeing this Saint from the intro to Narcos: Mexico and kinda wanting to know who this character is/was.', '3 months ago'), ("I'd like your take on José Gregorio Hernández from Venezuela.", '3 months ago'), ('Your shorts are fire', '3 months ago'), ('Folk religion is so cool and beautiful! I’m a pagan and I consider my religion a folk religion.', '3 weeks ago (edited)'), ('If Teresa can be considered a saint then everyone can', '3 months ago'), ('Was cleaning out a house here in the usa. In one of the rooms was a shrine of that dude. Took the statue to a pawn shop and they refused to take it or even let it in the shop...', '3 months ago'), ('Beautiful hero workship', '2 months ago'), ("He ain't no robin hood but he sure is robbing the hood", '3 months ago'), ('I visited San Simon Shrine in Chichicastenango, Guatemala. Very similar kind of guy… kinda’ creepy, kinda’ cool. He must have protected me it was 1984…', '2 months ago'), ("I'm first  pretty sure I first heard of this while watching Breaking Bad.", '3 months ago'), ('for what you say and the kind of rituals thats more like a kind of santeria than catholic practices.', '3 months ago'), ('DEAD Jesus Malverde “Joshua* of the Bad-Green” now the bad green here is money but I can’t help but make that herbal leap\n\n*Yehoshua being the transliteration etc etc you guys all know this stuff we’ve been doing this long enough.', '2 months ago (edited)'), ('Really, Malverde? Evil green? That’s what you name a saint and you still call him a saint? The word evil is literally in the name, may as well have St. Juan Diablorosa and St. Pablo Asesinegro', '2 months ago'), ('Ya bro I know that guy he’s on my hot sauce bottle', '3 months ago'), ('Religion has no place in modernity', '13 days ago'), ("There's a Novela called Malverde. I imagine it's about him. I've never seen it.", '3 months ago'), ('Worshipping saints is wierd enough. This is definitely some Santeria', '3 months ago'), ('How is it that so many channels handling religion or evolution draw a plethora of reactionaries to their Shorts even when the full videos usually come with some interesting discussion?', '3 months ago (edited)'), ('Looks like Saddam Hussein plus Escobar imo', '3 months ago'), ('That’s John Waters.', '3 months ago'), ('Heresy in the highest regard', '3 months ago'), ("can you discuss abt Rizal, the national hero of Philippines. He's sometimes seen by folk christians as a saint but also Jesus Christ himself", '3 months ago'), ("Saint Patrick isn't recognized by the church either", '2 months ago'), ('That’s benny', '3 months ago'), ('They certainly like their idols', '2 months ago'), ('Eh please Señor Sente eh no DEA please', '3 months ago (edited)'), ('El chapo a good Christian', '3 months ago'), ('Helping the poor doesn’t excuse you for helping drug cartels hippy the drugs that were sold destroyed 1000’s of more lives then he helped', '3 months ago'), ('How is this not idolatry?', '3 months ago'), ('Grande Malverde', '3 months ago'), ('Is this even official?', '3 months ago'), ('Hey-soos gonna Heysoous', '3 months ago'), ('Have you heard of Santa Muerte?', '3 months ago'), ("As a LEO in Texas, I have encountered and arrested many people carrying tributes to him. So, he's obviously not doing a good job intervening for them.\n\nA more common one, though, is Santa Muerte. Can you do a video on that?", '3 months ago (edited)'), ('Idol worship', '3 months ago'), ('Viva culiacan sinaloa', '3 months ago'), ('Kind of like the gaucho gil  or San la muerteIn Argentina', '3 months ago'), ('Eeh Senor Sente no DEA please', '2 months ago'), ('Nice hairdo vs your usual', '3 months ago'), ('Give us a genuinely comprehensible reasoning on why not to revere this person\n"Acknowledging that is actually reductive️"', '3 months ago'), ("Taking into account that his “miracles” help kidnappers, murderers, r_pists and drug addicts, I would say that there's nothing saintly about him, rather it would be some type of demonic entity.", '3 months ago'), ('incredibly pagan', '3 months ago'), ('Fake saint lol', '3 months ago'), ('Disgusting graven images and idolatry', '1 month ago'), ('Just clarifying what a Catholic Saint is for everyone: it’s someone who’s been confirmed to have gone to heaven. If your great grandfather went to heaven, he’s a Saint. \n\nEvery single person who has gone to heaven is a Saint, but for obvious reasons it is very, very difficult to confirm whether they have while on earth. The named Saints are those people who, through research, discernment, and the careful study of their life by the Church, have been determined to have definitely gone to heaven after they died. \n\nJesús Malverde isn’t an official Saint because he was an outlaw specifically or because he’s revered by criminals or anything like that. It’s because his morally grey life makes it impossible to confirm he ended up in heaven.', '3 months ago (edited)'), ("Remeber when the Bible said we weren't supposed to worship idols. The catholic church dosent lol", '3 months ago'), ('Idolatry', '3 months ago'), ('Yeah hpu have no idea what you are talkomg about', '3 months ago'), ('Though shalt not have any other gods before me. \n\nThe Bible says that only God the Father, Son &amp; Holy Spirit are to be prayed to because they are one. \n\nPraying to Mary or to the saints is stupid at best and down right idolatry at worst. \n\nThese things the Catholic Church has taught has no basis in the Bible, remember Romans 3:4 declares “let God be true, but every man a liar!” \n\nIf what someone is telling you doesn’t line up with the word of God, then don’t do it.', '3 months ago'), ('Wtf...', '3 months ago'), ("For Catholics: The folk saints like this are not recognized by the Church and therefore cannot be relied upon as intercessors. If the Church hasn't said it, and it does not bear any fruit, it is not permitted to venerate them.", '3 months ago'), ('Faux-saint', '3 months ago'), ('Hare Krishna', '3 months ago'), ('Idols are bad', '3 months ago'), ('The question that should be asked: who is the old god whose this mask is now?', '3 months ago'), ('Devil worship is devil worship.', '3 months ago'), ('latín american catholicism and how it incorporates indigenous elements into its practice is so uniquely beautiful', '3 months ago'), ('Catholics try not to commit idolatry challenge: impossible', '3 months ago'), ('Can we stop saying “late 1800s” to mean late 19th century? Late 1800s would mean 1807-ish, when Malverde wasn’t born until 1870.', '3 months ago'), ('Hahahaha that’s tradition I guess', '3 months ago'), ('Idolatry. No "saint" should be praised like this', '3 months ago'), ('This is idolic worship, it has nothing to do with the bible, focus on Jesus, don’t get confused and exonerate saints, these are just people who have died. Jesus is the living saviour exonerate him. Believe on him and thou shalt be saved from an eternity of hell fire.', '3 months ago'), ("I'm a fan of la Santa muerte and various black Madonnas. Yeah the church hella racist", '3 months ago'), ('This is a completely different religion than Christianity let alone Roman catholicism.', '3 months ago'), ('Bring back the spanish inquisition', '3 months ago'), ('Jesus lives! ️ and is God  Christ ️ and King ', '3 months ago'), ("I don't want to be offensive but what's up with Mexico and criminal folk saints? There's also Santa Muerte.", '3 months ago'), ('No American cares dude. ', '3 months ago'), ('Please consider captions 🫶 Thanks for all your work!', '3 months ago'), ('Idolatry', '2 months ago'), ('Idolatry', '2 months ago')]]</t>
+          <t>[[(None, None)]]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" s="2" t="n">
         <v>45589.90590802083</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>["this Mustachio fellow is Jesus mde a\npopular Saint in Mexico but he's not\nofficially recognized by the Catholic\nChurch he's what Scholars call a folk\nSaint you can find informal shrines and\nchapels to him across Mexico and the US\nfeaturing his distinctive statue where\ndevotees will offer candles flowers and\nsometimes alcohol or tobacco along with\ntheir prayers but he also has a bad\nreputation as a narco Saint revered by\ndrug cartel members according to Legend\nJesus malde was a Robin Hood likee\nfigure F back in the late 1800s as an\noutlaw he was a morally gray figure so\nsome cartel members venerate him as a\nsaint that not only overlooks criminal\nactivities but might even help you break\nthe law but calling him a narco Saint is\nreductive thousands and thousands of\npeople who are not involved in the drug\ntrade at all rever him as a saint who\nhelps the poor and the oppressed the\nmyth of malverde as a heroic Outlaw\nstanding up against the rich appeals to\nall sorts of people especially people\nseeking his help to overcome hardship"]</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">

--- a/YouTube_Shorts_Automation/youtube_shorts_crawling/top_yt_shorts_crawling/DB/loaded_db_100_2024-11-19.xlsx
+++ b/YouTube_Shorts_Automation/youtube_shorts_crawling/top_yt_shorts_crawling/DB/loaded_db_100_2024-11-19.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -539,7 +539,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[[('The audacity of assuming I can draw those perfect boxes.', '3 weeks ago (edited)'), ("When I practice I can do it, but when I'm drawing I seem to forget everything.", '3 weeks ago'), ('That’s the quickest little gem of anatomy tips I’ve ever seen…!', '3 weeks ago'), ('For the torso, I use a slightly stretched circle.\n\nIt works well enough for me.', '3 weeks ago'), ("another tip would to shape the box before drawing as boxes aren't exactly the same shape as a human body and some areas (mainly shoulders and chest) would be drawn slightly incorrectly so if you draw a sphere within the box or shave the box that would help even more to draw humans more proportional. :D", '3 weeks ago'), ("Damn, lucy, you've been BUILDING.", '3 weeks ago'), ('Thanks Marc, I am going to start hammering this into my process, I did a thumbnail and that was a hell of a realization. You rock man, changing lives of artists everyday!', '3 weeks ago'), ('Yep 100% box method helped me I was struggling with basic human design for years and just in 5 minutes I can finally draw human characters now I just need to learn shading', '3 weeks ago'), ('And yet I still see no comment saying about the drawings presented on the video.', '2 weeks ago'), ('Proportion is like, you know how 16:9 is your screen, no matter if the pixel is 1080p or 4k? Same thing with characters, it stays ALWAYS the same relationships between every single parts of the body. Need to check head to shoulders, hips and arms to ribcage, recheck head to ribcage, recheck hips and legs and arms etc etc.. back and forth\nBasically, the concept itself of proportion exists because of comparison, the mistake is drawing parts of something without thinking about the link to other parts', '3 weeks ago (edited)'), ('Honestly helped me realize this is my biggest issue while drawing ', '3 weeks ago'), ('GOD YOU LITERALLY SOLVED EVERY (AND GOD SHOULD CURSE ME IF I LIE) EVERY SINGLE PROBLEM I STRUGGLED WITH IN FEW SECONDS', '3 weeks ago'), ("Woah its like I found a cheat code I've been trying to find for a long time. Thanks!", '3 weeks ago'), ('I really like these shorts!', '2 days ago'), ("I've watched so many video tips, tutorials, videos of books, lets draws.. artists etc.. and even read in andrew loomis books.. but that didn't help. THIS DID!! Finally I found a method that will work for Me to start with. To even get the simple shape guide on paper to start practicing. Couldn't get a stickman the right proportion even xD But this was very good video, thanks a lot! very appreciated, sensei ^^", '2 weeks ago'), ('As a person who draw boxes for a month, boxes are artist best friend, i swear drawing boxes iin any perspective helps you to understand anything complicated as you learn, and i recomed learning anatomy day 1, like bones and muscles, and not only drawing , first learn how bones are connected and how the muscles work and bend', '3 weeks ago'), ("I'm always screwing up the connections between head and shoulders, basically the whole neck, and the connection between torso and hips.", '3 weeks ago'), ('Ooh YIKES. I can feel that in the same way', '3 weeks ago'), ("This is a good method but for me personally I prefer to draw a bean shape for the torso (i learned it from Proko). I find it easier to twist and bend the torso from different angles with it and when I use the box method, my figures turn out more stiff than I'd like. It's definitely more a me problem than the method though.", '3 weeks ago (edited)'), ('the box method is particularly good when it comes to working with perspective. also, dont expect this trick to be the end all be all when it comes to improving your art! you still need to learn the other attributes like anatomy', '13 days ago'), ('I know its hard to fit everything in these quick shorts but is there tips on how much space head/torso/hips take up in that upper half?', '3 weeks ago'), ('SIR, THATS A POGGERS, I NEED THIS LESSON', '3 weeks ago'), ('This is a great rule of thumb, but there’s still a few things that I can’t seem to get right. How far away from each other should the boxes be? How big/tall should the boxes be? Messing up these sizes can result in some wonky bodies.', '3 weeks ago'), ('this is really coming at the right time! thank you', '2 weeks ago'), ('comically smol head at the beginning ', '3 weeks ago'), ('Bro, you make it look so easy..', '3 weeks ago'), ('The boxes definitely help with proportions.', '13 days ago'), ('Quite useful, but that spacing you slipped between the boxes and talked right past is a major problem for me. I keep making my torsos too long or too short and it results in completely botched drafts.\n\nHow would you recommend rectifying this?', '3 weeks ago'), ('I think you should make a tutorial on drawing a woman’s chest. For some reason it always comes out inconsistent in size/height.', '2 weeks ago'), ('It helps with training. Once you get the hang of proportions, you can get rid of your training gear and start doing it from memory or using your imagination. It also means you can easily adjust your proportions while still making it realistic.', '3 weeks ago'), ('takes notes "learn to draw boxes and circles first" got it!', '7 days ago'), ('The length from shoulder to shoulder is about 3 heads in diameter. But that’s only for a more realistic proportion.', '6 days ago'), ('This actually breaks my brain more...', '3 weeks ago'), ('The height thing works, till you want to draw a character that’s bending over or rolling or something', '3 weeks ago'), ('Thank you sir its always so hard this is good info hope can use it', '2 weeks ago'), ('Idk first seemed very anatomically correct ngl', '3 weeks ago'), ("I'd love to see how the box method works with foreshortening", '16 hours ago'), ('Bro i love you ima watch all your videos and gets your course immediately, rn i’m following the 30 days challenges ( day 7 ) ', '3 weeks ago'), ("Really good advice, yet it's like everything I learned is thrown out the window as soon as I start drawing ", '3 weeks ago'), ('To imagine how much space should be in between, try considering that the boxes only represent the bone structures (spine doesn’t count) and leave the space in between according to what “feels right”.\nRemember that if you ever try to check your own body to get more accurate proportions, you should not look at it, but feel the gap with your hand from the side, not from the front.\nWhat i mean by “side” is you should feel the distance between your last rib and the top of your pelvis by putting your hand on your waist and somewhat squeezing your hand between that gap. Repeat, but for the head and torso. That method should give you a pretty good idea of the distance, although I can’t say for sure since I never used this technique; I don’t draw.', '3 weeks ago'), ('The tiny head with a huge body was funny', '3 weeks ago'), ('My issue is mainly neck sometimes it looks too long and sometimes too short I would like to properly know a good distance for it', '3 weeks ago'), ('"the box method" but I instantly get math flashbacks', '13 days ago'), ('Ive never been able to get used to boxes to make the figure.', '3 weeks ago'), ('Welp time to try this tomorrow', '2 weeks ago'), ('Me: drawing characters are hard but I love it\nMr Marc: how to draw a character proportionately.\n\nMe: gets inspired this is Perry easy and so fun to do now!', '13 days ago'), ("Its a great job/hobby to pursue, but I really don't get how people get the motivation/discipline to go through all these rules and stuff? I'd just get really frustrated and dip when seeing what he does already.", '3 weeks ago'), ('When i did this, my teachers said that my character had too long legs...', '3 weeks ago'), ('Thanks !!.', '2 weeks ago'), ('Thanks Professor Xavier', '3 weeks ago'), ('My struggle is I always make the head either too big or too small and it always throws off the 7-8 head tall thing', '3 weeks ago'), ('I tried this and it works pretty well but I’m bad at eyeballing this the relative size of things so I’m still pretty bad at drawing using this ', '3 weeks ago'), ('There shouldve been a vine boom sound effect when momo showed up', '3 weeks ago'), ('You literally drew my palworld character ', '3 weeks ago'), ('"draw boxes"\nCan i just throw boxes or a posing doll into blender and use that instead or is someone going to crucify me for this', '3 weeks ago'), ('I need a tutorial like this for wolves or cats', '7 days ago (edited)'), ("Also, don't forget that generally (not always), women have their waists higher and wider, while men have their shoulders wider and their waists lower", '3 weeks ago'), ("Ya know I have a weird issue when using boxes. I tend to draw the boxes with the wrong proportions.\n\nBut when I draw an actual figure on it, I use the figure to fix the boxes which in turn use the boxes fix the figures.\n\nIt's odd and time consuming. Halp.", '3 weeks ago'), ('Bless you', '2 weeks ago'), ('Do you recommend a beginner uses this method or do they have to go through the classic route of learning anatomy first before using shortcut methods ?', '3 weeks ago'), ('In my head i totally can do it…', '3 weeks ago'), ('This is akin to Spongebob\'s "how to draw a face" tutorial for me... HOW DID YOU DREW PERFECT BOXES!!?? xd', '3 weeks ago'), ('i forgot how to draw humans the normal way.\n\nthanks for helping me rember', '2 weeks ago'), ('That handwritten "pelvis" looked awfully similar to a different body part...', '3 weeks ago'), ('Funny that you assume the pencil goes the direction my hand wants it to(I have zero line control)', '2 weeks ago'), ('Brain: "Oh I get it, easy."\nHands: "Haha!... Funny."', '3 weeks ago'), ('Bad art style, good proportion ️\n\nGood art style, bad proportion ️', '11 days ago'), ("Whats Dan da Dan? It's been a long time since I've watched anime  and now Dan da Dan is everywhere", '2 weeks ago'), ('Gotta see if you have the ability to draw different body types or even chubby ladies', '6 days ago'), ('Nice!', '3 weeks ago'), ("Aren't the elbows suppose to reach the middle of the stomach?", '3 weeks ago'), ('Except if it is a transformer, then the legs will be like ⅔ of it', '3 weeks ago'), ('How do we consider proportion when drawing in perspective like the ( oh yikes one)', '3 weeks ago'), ('My arms are apparently long as hell', '10 days ago'), ('I think you fell in love with kowase ', '3 weeks ago'), ('How do i not forget how to do this when i am drawing and not practicing... Like do i just pretend I am practicing and not drawing???', '3 weeks ago'), ('Bro EVERY SINGLE SHORT/TIKTOK, he has some pics', '3 weeks ago'), ('Pretty sure the torso should be smaller, the legs longer, the bust bigger, and that thick thighs save lives but good video', '3 weeks ago'), ('All you had to do was follow the damn traina', '3 weeks ago'), ("I would kill to be able to draw a box in perspective, I can't draw in perspective even if I use horizon lines, and lines and more lines and perspective points and points and more points", '3 weeks ago (edited)'), ('thanks', '3 weeks ago'), ('how about the gap between boxes?', '3 days ago'), ('10/10', '2 weeks ago'), ('Ok dumb question but how do i know how big the boxes should be?', '2 weeks ago'), ('How am I suppose to use it in perspective?', '3 weeks ago'), ('Can you explain about guy proportions?… ', '2 weeks ago'), ("Boxes... it's always boxes", '3 weeks ago'), ('Lets hope I dont fail this online art school and end up gaining political power to disrupt world peace for gaining even more power', '3 weeks ago'), ('DANDADAN MENTIONED!?', '2 weeks ago'), ('Why did I read Pelvis as…', '3 weeks ago'), ('Was that sneesnaw?', '3 weeks ago'), ('easy to remember eh? I already forgot xd', '3 weeks ago'), ('When you realize if you wanna draw human you gotta learn about human body anatomy first...', '2 weeks ago'), ('Tusen takk dette kommer å være en stor hjelp', '3 weeks ago'), ('dandadan lady whose name i can NOT remember!!!', '3 weeks ago'), ("Warning don't depend on this method u mught not improve using this", '3 weeks ago'), ('Send this to oda', '3 weeks ago'), ('Now do dwarves.', '2 weeks ago'), ('MOM I SWEAR IM WATCHING THIS TO LEARN PROPORTIONS', '3 weeks ago'), ('If someone could help out and let me know what’s r he pelvis to torso to waist ratio?', '3 weeks ago (edited)'), ('WHY WOULD YOU DO LUCY LIKE TGAT', '3 weeks ago'), ('use 3D', '3 weeks ago'), ('BUT WHY STOP THEEEEEERE~', '3 weeks ago'), ('DANDADAN!!!!!!!!!!!!', '3 weeks ago'), ('LUCY NOOOOOOO', '3 weeks ago'), ('What is a man?\n\nA miserable little pile of boxes!', '3 weeks ago'), ('Shesh', '3 weeks ago'), ('Hi', '3 weeks ago'), ('First :D', '3 weeks ago'), ('Smash', '3 weeks ago'), ('hear me out', '2 weeks ago'), ('I recommend not using the  box method there is no things in a body that Represents a box.\nSaid by the one and only samdoesarts', '2 weeks ago')]]</t>
+          <t>[[('The audacity of assuming I can draw those perfect boxes.', '4 weeks ago (edited)'), ('That’s the quickest little gem of anatomy tips I’ve ever seen…!', '4 weeks ago'), ("When I practice I can do it, but when I'm drawing I seem to forget everything.", '4 weeks ago'), ('For the torso, I use a slightly stretched circle.\n\nIt works well enough for me.', '4 weeks ago'), ("another tip would to shape the box before drawing as boxes aren't exactly the same shape as a human body and some areas (mainly shoulders and chest) would be drawn slightly incorrectly so if you draw a sphere within the box or shave the box that would help even more to draw humans more proportional. :D", '3 weeks ago'), ("Damn, lucy, you've been BUILDING.", '3 weeks ago'), ('Thanks Marc, I am going to start hammering this into my process, I did a thumbnail and that was a hell of a realization. You rock man, changing lives of artists everyday!', '3 weeks ago'), ('Yep 100% box method helped me I was struggling with basic human design for years and just in 5 minutes I can finally draw human characters now I just need to learn shading', '3 weeks ago'), ('I really like these shorts!', '3 days ago'), ('Honestly helped me realize this is my biggest issue while drawing ', '4 weeks ago'), ('Ooh YIKES. I can feel that in the same way', '3 weeks ago'), ("Woah its like I found a cheat code I've been trying to find for a long time. Thanks!", '3 weeks ago'), ('The boxes definitely help with proportions.', '2 weeks ago'), ('And yet I still see no comment saying about the drawings presented on the video.', '2 weeks ago'), ("I've watched so many video tips, tutorials, videos of books, lets draws.. artists etc.. and even read in andrew loomis books.. but that didn't help. THIS DID!! Finally I found a method that will work for Me to start with. To even get the simple shape guide on paper to start practicing. Couldn't get a stickman the right proportion even xD But this was very good video, thanks a lot! very appreciated, sensei ^^", '2 weeks ago'), ('SIR, THATS A POGGERS, I NEED THIS LESSON', '3 weeks ago'), ('this is really coming at the right time! thank you', '2 weeks ago'), ('Bro, you make it look so easy..', '4 weeks ago'), ('Thank you sir its always so hard this is good info hope can use it', '2 weeks ago'), ("I'm always screwing up the connections between head and shoulders, basically the whole neck, and the connection between torso and hips.", '3 weeks ago'), ('GOD YOU LITERALLY SOLVED EVERY (AND GOD SHOULD CURSE ME IF I LIE) EVERY SINGLE PROBLEM I STRUGGLED WITH IN FEW SECONDS', '4 weeks ago'), ('Proportion is like, you know how 16:9 is your screen, no matter if the pixel is 1080p or 4k? Same thing with characters, it stays ALWAYS the same relationships between every single parts of the body. Need to check head to shoulders, hips and arms to ribcage, recheck head to ribcage, recheck hips and legs and arms etc etc.. back and forth\nBasically, the concept itself of proportion exists because of comparison, the mistake is drawing parts of something without thinking about the link to other parts', '3 weeks ago (edited)'), ('As a person who draw boxes for a month, boxes are artist best friend, i swear drawing boxes iin any perspective helps you to understand anything complicated as you learn, and i recomed learning anatomy day 1, like bones and muscles, and not only drawing , first learn how bones are connected and how the muscles work and bend', '3 weeks ago'), ('I know its hard to fit everything in these quick shorts but is there tips on how much space head/torso/hips take up in that upper half?', '4 weeks ago'), ('comically smol head at the beginning ', '3 weeks ago'), ('This is a great rule of thumb, but there’s still a few things that I can’t seem to get right. How far away from each other should the boxes be? How big/tall should the boxes be? Messing up these sizes can result in some wonky bodies.', '3 weeks ago'), ("This is a good method but for me personally I prefer to draw a bean shape for the torso (i learned it from Proko). I find it easier to twist and bend the torso from different angles with it and when I use the box method, my figures turn out more stiff than I'd like. It's definitely more a me problem than the method though.", '4 weeks ago (edited)'), ('the box method is particularly good when it comes to working with perspective. also, dont expect this trick to be the end all be all when it comes to improving your art! you still need to learn the other attributes like anatomy', '2 weeks ago'), ('Quite useful, but that spacing you slipped between the boxes and talked right past is a major problem for me. I keep making my torsos too long or too short and it results in completely botched drafts.\n\nHow would you recommend rectifying this?', '4 weeks ago'), ("I'd love to see how the box method works with foreshortening", '2 days ago'), ('Bro i love you ima watch all your videos and gets your course immediately, rn i’m following the 30 days challenges ( day 7 ) ', '4 weeks ago'), ('Welp time to try this tomorrow', '2 weeks ago'), ('This actually breaks my brain more...', '4 weeks ago'), ('Ive never been able to get used to boxes to make the figure.', '4 weeks ago'), ('takes notes "learn to draw boxes and circles first" got it!', '9 days ago'), ('I think you should make a tutorial on drawing a woman’s chest. For some reason it always comes out inconsistent in size/height.', '3 weeks ago'), ('Thanks Professor Xavier', '3 weeks ago'), ('My issue is mainly neck sometimes it looks too long and sometimes too short I would like to properly know a good distance for it', '4 weeks ago'), ('Thanks !!.', '2 weeks ago'), ('It helps with training. Once you get the hang of proportions, you can get rid of your training gear and start doing it from memory or using your imagination. It also means you can easily adjust your proportions while still making it realistic.', '4 weeks ago'), ('Idk first seemed very anatomically correct ngl', '4 weeks ago'), ('The height thing works, till you want to draw a character that’s bending over or rolling or something', '4 weeks ago'), ('Bless you', '2 weeks ago'), ('You literally drew my palworld character ', '3 weeks ago'), ('Do you recommend a beginner uses this method or do they have to go through the classic route of learning anatomy first before using shortcut methods ?', '3 weeks ago'), ('The tiny head with a huge body was funny', '3 weeks ago'), ("Really good advice, yet it's like everything I learned is thrown out the window as soon as I start drawing ", '4 weeks ago'), ('The length from shoulder to shoulder is about 3 heads in diameter. But that’s only for a more realistic proportion.', '8 days ago'), ('In my head i totally can do it…', '4 weeks ago'), ('My struggle is I always make the head either too big or too small and it always throws off the 7-8 head tall thing', '3 weeks ago'), ('I tried this and it works pretty well but I’m bad at eyeballing this the relative size of things so I’m still pretty bad at drawing using this ', '3 weeks ago'), ('"draw boxes"\nCan i just throw boxes or a posing doll into blender and use that instead or is someone going to crucify me for this', '4 weeks ago'), ('To imagine how much space should be in between, try considering that the boxes only represent the bone structures (spine doesn’t count) and leave the space in between according to what “feels right”.\nRemember that if you ever try to check your own body to get more accurate proportions, you should not look at it, but feel the gap with your hand from the side, not from the front.\nWhat i mean by “side” is you should feel the distance between your last rib and the top of your pelvis by putting your hand on your waist and somewhat squeezing your hand between that gap. Repeat, but for the head and torso. That method should give you a pretty good idea of the distance, although I can’t say for sure since I never used this technique; I don’t draw.', '3 weeks ago'), ('thanks', '3 weeks ago'), ('Nice!', '4 weeks ago'), ('Me: drawing characters are hard but I love it\nMr Marc: how to draw a character proportionately.\n\nMe: gets inspired this is Perry easy and so fun to do now!', '2 weeks ago'), ('I need a tutorial like this for wolves or cats', '8 days ago (edited)'), ('"the box method" but I instantly get math flashbacks', '2 weeks ago'), ('When i did this, my teachers said that my character had too long legs...', '3 weeks ago'), ('How do we consider proportion when drawing in perspective like the ( oh yikes one)', '4 weeks ago'), ('There shouldve been a vine boom sound effect when momo showed up', '4 weeks ago'), ('how about the gap between boxes?', '4 days ago'), ('Brain: "Oh I get it, easy."\nHands: "Haha!... Funny."', '3 weeks ago'), ("Its a great job/hobby to pursue, but I really don't get how people get the motivation/discipline to go through all these rules and stuff? I'd just get really frustrated and dip when seeing what he does already.", '3 weeks ago'), ('Funny that you assume the pencil goes the direction my hand wants it to(I have zero line control)', '2 weeks ago'), ('10/10', '3 weeks ago'), ('Arms are too short, my hands reach my knees', '21 hours ago'), ("Aren't the elbows suppose to reach the middle of the stomach?", '3 weeks ago'), ('I think you fell in love with kowase ', '4 weeks ago'), ('This is akin to Spongebob\'s "how to draw a face" tutorial for me... HOW DID YOU DREW PERFECT BOXES!!?? xd', '3 weeks ago'), ('Ok dumb question but how do i know how big the boxes should be?', '2 weeks ago'), ('i forgot how to draw humans the normal way.\n\nthanks for helping me rember', '2 weeks ago'), ('Bad art style, good proportion ️\n\nGood art style, bad proportion ️', '12 days ago'), ('That handwritten "pelvis" looked awfully similar to a different body part...', '3 weeks ago'), ('How am I suppose to use it in perspective?', '3 weeks ago'), ('My arms are apparently long as hell', '12 days ago'), ("Ya know I have a weird issue when using boxes. I tend to draw the boxes with the wrong proportions.\n\nBut when I draw an actual figure on it, I use the figure to fix the boxes which in turn use the boxes fix the figures.\n\nIt's odd and time consuming. Halp.", '3 weeks ago'), ('Except if it is a transformer, then the legs will be like ⅔ of it', '3 weeks ago'), ('All you had to do was follow the damn traina', '3 weeks ago'), ("Whats Dan da Dan? It's been a long time since I've watched anime  and now Dan da Dan is everywhere", '2 weeks ago'), ('Tusen takk dette kommer å være en stor hjelp', '3 weeks ago'), ("Also, don't forget that generally (not always), women have their waists higher and wider, while men have their shoulders wider and their waists lower", '4 weeks ago'), ('DANDADAN MENTIONED!?', '2 weeks ago'), ('Bro EVERY SINGLE SHORT/TIKTOK, he has some pics', '4 weeks ago'), ('How do i not forget how to do this when i am drawing and not practicing... Like do i just pretend I am practicing and not drawing???', '4 weeks ago'), ('Was that sneesnaw?', '3 weeks ago'), ('Can you explain about guy proportions?… ', '2 weeks ago'), ("Boxes... it's always boxes", '3 weeks ago'), ("I would kill to be able to draw a box in perspective, I can't draw in perspective even if I use horizon lines, and lines and more lines and perspective points and points and more points", '3 weeks ago (edited)'), ('Send this to oda', '3 weeks ago'), ('easy to remember eh? I already forgot xd', '4 weeks ago'), ('Now do dwarves.', '2 weeks ago'), ('Why did I read Pelvis as…', '3 weeks ago'), ('Gotta see if you have the ability to draw different body types or even chubby ladies', '7 days ago'), ('use 3D', '3 weeks ago'), ('If someone could help out and let me know what’s r he pelvis to torso to waist ratio?', '3 weeks ago (edited)'), ('DANDADAN!!!!!!!!!!!!', '4 weeks ago'), ('Lets hope I dont fail this online art school and end up gaining political power to disrupt world peace for gaining even more power', '3 weeks ago'), ('MOM I SWEAR IM WATCHING THIS TO LEARN PROPORTIONS', '4 weeks ago'), ('dandadan lady whose name i can NOT remember!!!', '3 weeks ago'), ('Pretty sure the torso should be smaller, the legs longer, the bust bigger, and that thick thighs save lives but good video', '4 weeks ago'), ('LUCY NOOOOOOO', '4 weeks ago'), ("Warning don't depend on this method u mught not improve using this", '3 weeks ago'), ('BUT WHY STOP THEEEEEERE~', '3 weeks ago'), ('WHY WOULD YOU DO LUCY LIKE TGAT', '3 weeks ago'), ('When you realize if you wanna draw human you gotta learn about human body anatomy first...', '2 weeks ago'), ('Shesh', '3 weeks ago'), ('Hi', '4 weeks ago'), ('What is a man?\n\nA miserable little pile of boxes!', '3 weeks ago'), ('hear me out', '3 weeks ago'), ('Smash', '3 weeks ago'), ('First :D', '4 weeks ago'), ('I recommend not using the  box method there is no things in a body that Represents a box.\nSaid by the one and only samdoesarts', '3 weeks ago')]]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -588,7 +588,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[[('Sweet boy.  he’s well-loved and it shows.', '6 days ago'), ('He’s so adorable &amp; intelligent ️ it’s like he waited for the camera to focus on him to say “Hey guys” 🥹 such a beautiful soul i love y’all sm, que mi Diosito siempre los bendiga!!', '1 month ago'), ('Love to see this side of manny and little manny bonding 🫶🫶🫶 sending positive thoughts and prayers ', '3 months ago'), ('You’re such a sweet patient dad with him ', '2 months ago'), ('It makes me so sad that not everyone has a good experience with ABA. I am an RBT currently on the path to becoming a BCBA. I’m also a mom &amp; aunt to neurodivergent children. I see how bad people can be when they are just in it for the money or just as another job. If you really don’t love it, it shows. You guys are doing amazing! Sending blessings. I love to see this content, it’s very raw. Thank you! Would love to see your must have items you guys use with many. Also, sensory friendly places etc.', '3 months ago'), ("Awww poor manny ! Good luck lil dude! And I'm here for the switch up! Saludos  from AZ", '3 months ago'), ('What clinic do you go to?? In Tijuana \nCan you share information please?  I want to get them', '2 months ago'), ('My best friend told me that Jenny is her aunt, (Geraldine Merino)', '3 weeks ago'), ('Wear in Tijuana do you get them?? Please share name or address!! Please I been wanting them for soo long!!', '2 months ago'), ('Great video!', '3 months ago'), ('Loved it', '3 months ago'), ('Hey I work for an amazing clinic in Arizona. We do stem cells… I do I have question. Do you know where they get their stem cells come? Not all are legit. I’m from Cali too and I can tell you that we have the best of the best. List of people lie and put  stuff that’s not really good. Hit me up. You can get stem cells from different sources but not all are good.', '3 months ago'), ('Hi can you said hello in Spanish', '1 month ago')]]</t>
+          <t>[[('Sweet boy.  he’s well-loved and it shows.', '7 days ago'), ('He’s so adorable &amp; intelligent ️ it’s like he waited for the camera to focus on him to say “Hey guys” 🥹 such a beautiful soul i love y’all sm, que mi Diosito siempre los bendiga!!', '2 months ago'), ('Love to see this side of manny and little manny bonding 🫶🫶🫶 sending positive thoughts and prayers ', '3 months ago'), ('You’re such a sweet patient dad with him ', '2 months ago'), ('It makes me so sad that not everyone has a good experience with ABA. I am an RBT currently on the path to becoming a BCBA. I’m also a mom &amp; aunt to neurodivergent children. I see how bad people can be when they are just in it for the money or just as another job. If you really don’t love it, it shows. You guys are doing amazing! Sending blessings. I love to see this content, it’s very raw. Thank you! Would love to see your must have items you guys use with many. Also, sensory friendly places etc.', '3 months ago'), ('What clinic do you go to?? In Tijuana \nCan you share information please?  I want to get them', '2 months ago'), ("Awww poor manny ! Good luck lil dude! And I'm here for the switch up! Saludos  from AZ", '3 months ago'), ('Wear in Tijuana do you get them?? Please share name or address!! Please I been wanting them for soo long!!', '2 months ago'), ('Great video!', '3 months ago'), ('My best friend told me that Jenny is her aunt, (Geraldine Merino)', '3 weeks ago'), ('Loved it', '3 months ago'), ('Hey I work for an amazing clinic in Arizona. We do stem cells… I do I have question. Do you know where they get their stem cells come? Not all are legit. I’m from Cali too and I can tell you that we have the best of the best. List of people lie and put  stuff that’s not really good. Hit me up. You can get stem cells from different sources but not all are good.', '3 months ago'), ('Hi can you said hello in Spanish', '1 month ago')]]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -637,7 +637,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[[('', '2 weeks ago'), ('Very very very very very very very very very very very nice Bhai Jan ', '3 weeks ago'), ('How to download', '3 weeks ago')]]</t>
+          <t>[[('', '2 weeks ago'), ('Very very very very very very very very very very very nice Bhai Jan ', '4 weeks ago'), ('How to download', '3 weeks ago')]]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[[('Sounds like a nightmare for service dogs', '1 month ago'), (' nice, in Colombia many many nice restaurants allow your furry friends to come in (subject to size) nice one', '1 month ago (edited)')]]</t>
+          <t>[[(' nice, in Colombia many many nice restaurants allow your furry friends to come in (subject to size) nice one', '1 month ago (edited)'), ('Sounds like a nightmare for service dogs', '1 month ago')]]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -727,14 +727,18 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[[(None, None)]]</t>
+          <t>[[("I'm pretty sure the Catholic Church has a no-mustache saint policy.", '3 months ago'), ('Regarding saint patrons of criminals, I heard once Saint Nicholas was seen as patron of thieves. There was something also about the Good Thief, you know that guy who was crucified next to Jesus...', '3 months ago'), ('No major christian figure has ever been regarded as a criminal in the eyes of the law... totally never...', '3 months ago'), ("yeah that's Freddie Mercury", '3 months ago'), ('Your shorts are fire', '3 months ago'), ('I remember seeing this Saint from the intro to Narcos: Mexico and kinda wanting to know who this character is/was.', '3 months ago'), ("I'd like your take on José Gregorio Hernández from Venezuela.", '3 months ago'), ('Beautiful hero workship', '2 months ago'), ("He ain't no robin hood but he sure is robbing the hood", '3 months ago'), ('Was cleaning out a house here in the usa. In one of the rooms was a shrine of that dude. Took the statue to a pawn shop and they refused to take it or even let it in the shop...', '3 months ago'), ("I'm first  pretty sure I first heard of this while watching Breaking Bad.", '3 months ago'), ('If Teresa can be considered a saint then everyone can', '3 months ago'), ('Folk religion is so cool and beautiful! I’m a pagan and I consider my religion a folk religion.', '4 weeks ago (edited)'), ('I visited San Simon Shrine in Chichicastenango, Guatemala. Very similar kind of guy… kinda’ creepy, kinda’ cool. He must have protected me it was 1984…', '2 months ago'), ('Ya bro I know that guy he’s on my hot sauce bottle', '3 months ago'), ('for what you say and the kind of rituals thats more like a kind of santeria than catholic practices.', '3 months ago'), ('DEAD Jesus Malverde “Joshua* of the Bad-Green” now the bad green here is money but I can’t help but make that herbal leap\n\n*Yehoshua being the transliteration etc etc you guys all know this stuff we’ve been doing this long enough.', '2 months ago (edited)'), ("There's a Novela called Malverde. I imagine it's about him. I've never seen it.", '3 months ago'), ('Heresy in the highest regard', '3 months ago'), ('Looks like Saddam Hussein plus Escobar imo', '3 months ago'), ('That’s John Waters.', '3 months ago'), ('Really, Malverde? Evil green? That’s what you name a saint and you still call him a saint? The word evil is literally in the name, may as well have St. Juan Diablorosa and St. Pablo Asesinegro', '2 months ago'), ("can you discuss abt Rizal, the national hero of Philippines. He's sometimes seen by folk christians as a saint but also Jesus Christ himself", '3 months ago'), ('They certainly like their idols', '3 months ago'), ('How is it that so many channels handling religion or evolution draw a plethora of reactionaries to their Shorts even when the full videos usually come with some interesting discussion?', '3 months ago (edited)'), ('Worshipping saints is wierd enough. This is definitely some Santeria', '3 months ago'), ('That’s benny', '3 months ago'), ('Hey-soos gonna Heysoous', '3 months ago'), ('Religion has no place in modernity', '2 weeks ago'), ('Have you heard of Santa Muerte?', '3 months ago'), ("As a LEO in Texas, I have encountered and arrested many people carrying tributes to him. So, he's obviously not doing a good job intervening for them.\n\nA more common one, though, is Santa Muerte. Can you do a video on that?", '3 months ago (edited)'), ("Saint Patrick isn't recognized by the church either", '2 months ago'), ('Idol worship', '3 months ago'), ('Eh please Señor Sente eh no DEA please', '3 months ago (edited)'), ('Is this even official?', '3 months ago'), ('Grande Malverde', '3 months ago'), ('El chapo a good Christian', '3 months ago'), ('Nice hairdo vs your usual', '3 months ago'), ('incredibly pagan', '3 months ago'), ('Eeh Senor Sente no DEA please', '2 months ago')]]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" s="2" t="n">
         <v>45589.90590802083</v>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>["this Mustachio fellow is Jesus mde a\npopular Saint in Mexico but he's not\nofficially recognized by the Catholic\nChurch he's what Scholars call a folk\nSaint you can find informal shrines and\nchapels to him across Mexico and the US\nfeaturing his distinctive statue where\ndevotees will offer candles flowers and\nsometimes alcohol or tobacco along with\ntheir prayers but he also has a bad\nreputation as a narco Saint revered by\ndrug cartel members according to Legend\nJesus malde was a Robin Hood likee\nfigure F back in the late 1800s as an\noutlaw he was a morally gray figure so\nsome cartel members venerate him as a\nsaint that not only overlooks criminal\nactivities but might even help you break\nthe law but calling him a narco Saint is\nreductive thousands and thousands of\npeople who are not involved in the drug\ntrade at all rever him as a saint who\nhelps the poor and the oppressed the\nmyth of malverde as a heroic Outlaw\nstanding up against the rich appeals to\nall sorts of people especially people\nseeking his help to overcome hardship"]</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -768,7 +772,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[[('السلام عليكم ورحمة الله وبركاته \nجزاك الله خيرا على هذا العلم', '4 weeks ago'), ('', '2 weeks ago'), ('I remember this topic. \nI was teaching a medical technician on how to do ECG by having her do one me, and the machine gives a STEMI warning. Just J point sloping, but I did have a delta waves. Thought it was really cool.', '4 weeks ago'), ('Hi medicosis ', '4 weeks ago'), ('Hello.', '3 weeks ago')]]</t>
+          <t>[[('السلام عليكم ورحمة الله وبركاته \nجزاك الله خيرا على هذا العلم', '4 weeks ago'), ('', '2 weeks ago'), ('I remember this topic. \nI was teaching a medical technician on how to do ECG by having her do one me, and the machine gives a STEMI warning. Just J point sloping, but I did have a delta waves. Thought it was really cool.', '4 weeks ago'), ('Hi medicosis ', '4 weeks ago'), ('Hello.', '4 weeks ago')]]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -817,7 +821,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[[('兔子非常嗜甜，個性也特好', '9 months ago'), ('這個循環很是巧妙', '9 months ago'), ('貓個性不差啊！他們只是在作自己。', '9 months ago'), ('沒點心吃我真的也會比較機掰', '10 months ago'), ('不過99.9%寵物的問題都來自於飼主', '3 months ago'), ('動物都是美的', '7 months ago'), ('可是我超愛吃甜的。。。不過我不養貓', '9 months ago'), ('原來是因為太苦了(#', '10 months ago'), ('所有ㄧ切遇到的人事地物也是 包括你', '7 months ago'), ('原來他們吃不到甜味啊', '10 months ago'), ('喵', '4 months ago'), ('', '10 months ago')]]</t>
+          <t>[[('兔子非常嗜甜，個性也特好', '9 months ago'), ('這個循環很是巧妙', '9 months ago'), ('不要對貓做所有對狗想做的事，想得到貓的愛情只能等牠們臨幸。擁有一隻黏人貓，那應該極可能是十世因果。', '1 day ago'), ('貓個性不差啊！他們只是在作自己。', '9 months ago'), ('沒點心吃我真的也會比較機掰', '10 months ago'), ('可是我超愛吃甜的。。。不過我不養貓', '9 months ago'), ('不過99.9%寵物的問題都來自於飼主', '3 months ago'), ('動物都是美的', '7 months ago'), ('原來是因為太苦了(#', '10 months ago'), ('所有ㄧ切遇到的人事地物也是 包括你', '7 months ago'), ('原來他們吃不到甜味啊', '10 months ago'), ('喵', '4 months ago'), ('', '10 months ago')]]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -870,7 +874,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[[('It is purpose that created us, that binds us, that drives us', '3 weeks ago'), ('World peace win win', '3 weeks ago'), ('Take a day off! ', '3 weeks ago'), ('Full video link?', '3 weeks ago'), ('To write a song that would save the soul of everyone who heard it', '3 weeks ago'), ('Greatest badminton player of all time.', '3 weeks ago'), ("I would walk into a convenience store and randomly choose the winning Powerball numbers and I'm buying 20 tickets with those exact same numbers, that way even if I do have to split the jackpot with another winner its not an even split.", '3 weeks ago'), ('Become the sad worm god of Arrakis', '3 weeks ago'), ('Make Money and live With FREEDOM and Responsibilities.', '3 weeks ago (edited)')]]</t>
+          <t>[[('It is purpose that created us, that binds us, that drives us', '3 weeks ago'), ('World peace win win', '3 weeks ago'), ('Full video link?', '3 weeks ago'), ('Take a day off! ', '3 weeks ago'), ('To write a song that would save the soul of everyone who heard it', '3 weeks ago'), ('Greatest badminton player of all time.', '3 weeks ago'), ('Become the sad worm god of Arrakis', '3 weeks ago'), ('Make Money and live With FREEDOM and Responsibilities.', '3 weeks ago (edited)'), ("I would walk into a convenience store and randomly choose the winning Powerball numbers and I'm buying 20 tickets with those exact same numbers, that way even if I do have to split the jackpot with another winner its not an even split.", '3 weeks ago')]]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -933,7 +937,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[[('James Lipton always asked the most thoughtful and insightful questions of his guests. ', '1 year ago'), ('You know you’re a good interviewer when you can get somebody reevaluating reasons behind their own creative decisions. RIP James Lipton.', '1 year ago (edited)'), ("For context, the interviewer (James Lipton) is referencing the final scene in Spielberg's movie Close Encounters of the Third Kind (1977). The shots of Spielberg's parents are from his movie The Fablemans (2022) which is based off his own life.", '1 year ago (edited)'), ('I’ve been listening to this pod for like 6 years. This is a top 5 all timer episode.', '1 year ago'), ('Thank you very much for the thoughtful editing! I will show this video to my friends after they watch close encounters, it will blow their minds.', '1 year ago'), ('I love this channel so goddamn much', '1 year ago'), ('In college I kept solving math problems on my sleep. I guess was stressed about my STEM classes and I kept doing chemistry and math in my sleep! And it became a nightmare. I talked to my mom once about it and she said YOUR DAD, HE SOLVES THINGS IN HIS DREAMS ALL THE TIME. \n\nI’m a soon to be father to a little boy. I hope he too solves things in his dreams. Can’t wait for that talk. Idk. It’s a legacy we pass off. ', '1 year ago (edited)'), ("A good interviewer's questions reveal things to the audience, a great interviewer's questions reveal things to the interviewee", '8 months ago'), ('Technology communication via music tangentially reminded me of Electric Dreams. Short Circuit, eat your heart out.', '1 year ago (edited)'), ('A really good question indeed! When is this interview from?', '1 year ago'), ('The 3  little 1’s \nI love how there little guitars sound like real tone but, out of tune slightly it IS MAGNIFICENT \n  ️', '11 months ago'), ('Freud take a sip of tea camly', '1 year ago'), ('Hello Steven:) greetings from Poland', '1 year ago'), ('ハリウッドの社長に感謝します', '1 year ago'), ('1:30:33 ', '1 year ago'), ('', '1 year ago'), ('This movie, with all the pacing issues it has, has always fascinated me.', '1 year ago'), ('ハーバードの頭の良さはどこか東京大学の医者の先生方に似ています', '1 year ago'), ('And the questions they ask these days', '1 year ago'), ("Awwww... I still don't like the movie but it really is cute how a writer's personal life can seep into stories in way they don't even notice.", '1 year ago'), ('I promise I’ve created an event that innocent which corrects a dreaded clip of your movie \nnever before viewed\nIt’s not even in the deleted 30th version \n you will like \nUntil Heaven brings us together I’ll save it just for you Steven !!!! ', '11 months ago'), ('This could have been posted as a normal video that happens to be short.', '1 year ago'), ("this man is a LIAR. \nClose Encounters was a mirror film. \nDerived from...'2001: A Space Odyssey'.", '1 year ago')]]</t>
+          <t>[[('You know you’re a good interviewer when you can get somebody reevaluating reasons behind their own creative decisions. RIP James Lipton.', '1 year ago (edited)'), ('James Lipton always asked the most thoughtful and insightful questions of his guests. ', '1 year ago'), ("For context, the interviewer (James Lipton) is referencing the final scene in Spielberg's movie Close Encounters of the Third Kind (1977). The shots of Spielberg's parents are from his movie The Fablemans (2022) which is based off his own life.", '1 year ago (edited)'), ('I’ve been listening to this pod for like 6 years. This is a top 5 all timer episode.', '1 year ago'), ('Thank you very much for the thoughtful editing! I will show this video to my friends after they watch close encounters, it will blow their minds.', '1 year ago'), ('I love this channel so goddamn much', '1 year ago'), ('In college I kept solving math problems on my sleep. I guess was stressed about my STEM classes and I kept doing chemistry and math in my sleep! And it became a nightmare. I talked to my mom once about it and she said YOUR DAD, HE SOLVES THINGS IN HIS DREAMS ALL THE TIME. \n\nI’m a soon to be father to a little boy. I hope he too solves things in his dreams. Can’t wait for that talk. Idk. It’s a legacy we pass off. ', '1 year ago (edited)'), ("A good interviewer's questions reveal things to the audience, a great interviewer's questions reveal things to the interviewee", '8 months ago'), ('Technology communication via music tangentially reminded me of Electric Dreams. Short Circuit, eat your heart out.', '1 year ago (edited)'), ('A really good question indeed! When is this interview from?', '1 year ago'), ('The 3  little 1’s \nI love how there little guitars sound like real tone but, out of tune slightly it IS MAGNIFICENT \n  ️', '11 months ago'), ('Freud take a sip of tea camly', '1 year ago'), ('1:30:33 ', '1 year ago'), ('Hello Steven:) greetings from Poland', '1 year ago'), ('', '1 year ago'), ('ハリウッドの社長に感謝します', '1 year ago'), ('And the questions they ask these days', '1 year ago'), ('This movie, with all the pacing issues it has, has always fascinated me.', '1 year ago'), ('ハーバードの頭の良さはどこか東京大学の医者の先生方に似ています', '1 year ago'), ('I promise I’ve created an event that innocent which corrects a dreaded clip of your movie \nnever before viewed\nIt’s not even in the deleted 30th version \n you will like \nUntil Heaven brings us together I’ll save it just for you Steven !!!! ', '11 months ago'), ("Awwww... I still don't like the movie but it really is cute how a writer's personal life can seep into stories in way they don't even notice.", '1 year ago'), ('This could have been posted as a normal video that happens to be short.', '1 year ago'), ("this man is a LIAR. \nClose Encounters was a mirror film. \nDerived from...'2001: A Space Odyssey'.", '1 year ago')]]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
